--- a/ExperimentalResult/Values.xlsx
+++ b/ExperimentalResult/Values.xlsx
@@ -171,10 +171,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$52</c:f>
+              <c:f>Sheet1!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.953125E-3</c:v>
                 </c:pt>
@@ -234,96 +234,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.7940088757396497E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.765625E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.8879751461988299E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0807599852070997E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.9005055147058802E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8828125E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.6691715542521897E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>6.103515625E-5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.80101102941175E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.7159926470588201E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.84954982850609695</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.170565119760479</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.1255170036764698E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.50195881924198E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.8125E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,10 +256,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$52</c:f>
+              <c:f>Sheet1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.953125E-3</c:v>
                 </c:pt>
@@ -409,96 +319,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7.8125E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.765625E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.90625E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1015625E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.8828125E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.6875E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>6.103515625E-5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.734375E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.85546875</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.171875</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.17578125E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.515625E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.8125E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,11 +333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52938240"/>
-        <c:axId val="52939776"/>
+        <c:axId val="75629696"/>
+        <c:axId val="75631232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52938240"/>
+        <c:axId val="75629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52939776"/>
+        <c:crossAx val="75631232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +354,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52939776"/>
+        <c:axId val="75631232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52938240"/>
+        <c:crossAx val="75629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -572,19 +392,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -892,7 +712,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ExperimentalResult/Values.xlsx
+++ b/ExperimentalResult/Values.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19395" windowHeight="14805"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="19392" windowHeight="14616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$22</c:f>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.953125E-3</c:v>
                 </c:pt>
@@ -188,51 +188,42 @@
                   <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5746663411458301E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5746663411458301E-2</c:v>
+                  <c:v>3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.90625E-3</c:v>
+                  <c:v>3.1088679941002902E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.5624999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3.1088679941002902E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5624999999999899E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.953125E-3</c:v>
+                  <c:v>4.8828125E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8125E-3</c:v>
+                  <c:v>1.95312499999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1088679941002902E-2</c:v>
+                  <c:v>2.44140625E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8828125E-4</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.95312499999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.44140625E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>7.7940088757396497E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -256,10 +247,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$22</c:f>
+              <c:f>Sheet1!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.953125E-3</c:v>
                 </c:pt>
@@ -273,51 +264,42 @@
                   <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.587890625E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.587890625E-2</c:v>
+                  <c:v>3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.90625E-3</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3.125E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>4.8828125E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.5625E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.953125E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.8828125E-4</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.953125E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.44140625E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>7.8125E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -333,11 +315,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="75629696"/>
-        <c:axId val="75631232"/>
+        <c:axId val="167866368"/>
+        <c:axId val="167867904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75629696"/>
+        <c:axId val="167866368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75631232"/>
+        <c:crossAx val="167867904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75631232"/>
+        <c:axId val="167867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75629696"/>
+        <c:crossAx val="167866368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -399,7 +381,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -709,20 +691,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -752,7 +734,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
+        <f>C3/B3</f>
         <v>1</v>
       </c>
     </row>
@@ -767,7 +749,7 @@
         <v>1.5625E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D52" si="0">B4/C4</f>
+        <f t="shared" ref="D4:D49" si="0">C4/B4</f>
         <v>1</v>
       </c>
     </row>
@@ -803,121 +785,133 @@
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.5746663411458301E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.587890625E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.0051363097589898</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>2.5746663411458301E-2</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="C8">
-        <v>2.587890625E-2</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.99488993710691698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>3.90625E-3</v>
+        <v>3.1088679941002902E-2</v>
       </c>
       <c r="C9">
-        <v>3.90625E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0051890289103056</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>3.1088679941002902E-2</v>
+        <v>1.5624999999999899E-2</v>
       </c>
       <c r="C10">
-        <v>3.125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.99483775811209285</v>
+        <v>1.0000000000000064</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>1.5624999999999899E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C13">
-        <v>1.5625E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0.99999999999999356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>7.8125E-3</v>
+        <v>3.1088679941002902E-2</v>
       </c>
       <c r="C14">
-        <v>7.8125E-3</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0051890289103056</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>1.953125E-3</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="C15">
-        <v>1.953125E-3</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -926,43 +920,43 @@
     </row>
     <row r="16" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>7.8125E-3</v>
+        <v>1.95312499999999E-3</v>
       </c>
       <c r="C16">
-        <v>7.8125E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0000000000000051</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>3.1088679941002902E-2</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="C17">
-        <v>3.125E-2</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.99483775811209285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>4.8828125E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C18">
-        <v>4.8828125E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -971,28 +965,28 @@
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>1.95312499999999E-3</v>
+        <v>7.7940088757396497E-2</v>
       </c>
       <c r="C19">
-        <v>1.953125E-3</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.99999999999999489</v>
+        <v>1.002372479240806</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>2.44140625E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C20">
-        <v>2.44140625E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -1001,13 +995,13 @@
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C21">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -1016,28 +1010,28 @@
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>7.7940088757396497E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C22">
-        <v>7.8125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0.99763313609467519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C23">
-        <v>1.5625E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1046,13 +1040,13 @@
     </row>
     <row r="24" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>3.125E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C24">
-        <v>3.125E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1061,13 +1055,13 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>1.5625E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C25">
-        <v>1.5625E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1076,13 +1070,13 @@
     </row>
     <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C26">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1091,13 +1085,13 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>7.8125E-3</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="C27">
-        <v>7.8125E-3</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -1106,13 +1100,13 @@
     </row>
     <row r="28" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>7.8125E-3</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>7.8125E-3</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -1121,13 +1115,13 @@
     </row>
     <row r="29" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>6.25E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C29">
-        <v>6.25E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -1136,28 +1130,28 @@
     </row>
     <row r="30" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>9.765625E-4</v>
+        <v>3.8879751461988299E-2</v>
       </c>
       <c r="C30">
-        <v>9.765625E-4</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0047003525264395</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1166,13 +1160,13 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>7.8125E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="C32">
-        <v>7.8125E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1181,43 +1175,43 @@
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>3.8879751461988299E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C33">
-        <v>3.90625E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0.9953216374269005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>3.90625E-3</v>
+        <v>4.0807599852070997E-2</v>
       </c>
       <c r="C34">
-        <v>3.90625E-3</v>
+        <v>4.1015625E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0050977060322857</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>3.90625E-3</v>
+        <v>0.125</v>
       </c>
       <c r="C35">
-        <v>3.90625E-3</v>
+        <v>0.125</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -1226,274 +1220,229 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.125</v>
+        <v>3.9005055147058802E-3</v>
       </c>
       <c r="C36">
-        <v>0.125</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.0014727540500743</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>4.0807599852070997E-2</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="C37">
-        <v>4.1015625E-2</v>
+        <v>4.8828125E-4</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0.99492814877430236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.125</v>
+        <v>4.6691715542521897E-2</v>
       </c>
       <c r="C38">
-        <v>0.125</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0039254170755663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39">
-        <v>3.9005055147058802E-3</v>
-      </c>
-      <c r="C39">
-        <v>3.90625E-3</v>
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.103515625E-5</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0.99852941176470533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>4.8828125E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C40">
-        <v>4.8828125E-4</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>4.6691715542521897E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="C41">
-        <v>4.6875E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0.99608993157380044</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1">
-        <v>6.103515625E-5</v>
-      </c>
-      <c r="C42" s="1">
-        <v>6.103515625E-5</v>
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C42">
+        <v>1.5625E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>1.5625E-2</v>
+        <v>7.80101102941175E-3</v>
       </c>
       <c r="C43">
-        <v>1.5625E-2</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0014727540500756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1.5625E-2</v>
+        <v>2.7159926470588201E-2</v>
       </c>
       <c r="C44">
-        <v>1.5625E-2</v>
+        <v>2.734375E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0067681895093075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>1.5625E-2</v>
+        <v>0.84954982850609695</v>
       </c>
       <c r="C45">
-        <v>1.5625E-2</v>
+        <v>0.85546875</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0069671269362872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>7.80101102941175E-3</v>
+        <v>0.170565119760479</v>
       </c>
       <c r="C46">
-        <v>7.8125E-3</v>
+        <v>0.171875</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0.998529411764704</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0076796489303348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>2.7159926470588201E-2</v>
+        <v>5.1255170036764698E-2</v>
       </c>
       <c r="C47">
-        <v>2.734375E-2</v>
+        <v>5.17578125E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0.99327731092436855</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0098066685346037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>0.84954982850609695</v>
+        <v>3.50195881924198E-2</v>
       </c>
       <c r="C48">
-        <v>0.85546875</v>
+        <v>3.515625E-2</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0.99308107807105395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0039024390243909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>0.170565119760479</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="C49">
-        <v>0.171875</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.99237887860642326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>5.1255170036764698E-2</v>
-      </c>
-      <c r="C50">
-        <v>5.17578125E-2</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0.99028856825749156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>3.50195881924198E-2</v>
-      </c>
-      <c r="C51">
-        <v>3.515625E-2</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0.99611273080660767</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="C52">
-        <v>7.8125E-3</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="4">
-        <f>AVERAGE(B3:B52)</f>
-        <v>5.0396615083983159E-2</v>
-      </c>
-      <c r="C53" s="4">
-        <f>AVERAGE(C3:C52)</f>
-        <v>5.0582275390625001E-2</v>
-      </c>
-      <c r="D53" s="4">
-        <f>AVERAGE(D3:D52)</f>
-        <v>0.99852629143396021</v>
+      <c r="B50" s="4">
+        <f>AVERAGE(B3:B49)</f>
+        <v>5.3613420302109742E-2</v>
+      </c>
+      <c r="C50" s="4">
+        <f>AVERAGE(C3:C49)</f>
+        <v>5.3810931266622342E-2</v>
+      </c>
+      <c r="D50" s="4">
+        <f>AVERAGE(D3:D49)</f>
+        <v>1.0014825511380805</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1522,7 +1471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
